--- a/base.xlsx
+++ b/base.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxso\Documents\WorkPython\OrganizadorPopularBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6606053F-5C70-47BF-B7E3-9B16303BD827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71A79F4-B46F-4FB4-AFD4-22373825741F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9F93DECC-6331-4401-B826-15AA14B2D730}"/>
+    <workbookView xWindow="9510" yWindow="945" windowWidth="17340" windowHeight="14295" xr2:uid="{9F93DECC-6331-4401-B826-15AA14B2D730}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,54 +35,663 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="219">
   <si>
     <t>Nome</t>
   </si>
   <si>
-    <t>Belém</t>
-  </si>
-  <si>
-    <t>Ananindeua</t>
-  </si>
-  <si>
-    <t>Santarém</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parauapebas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goianésia do Pará </t>
-  </si>
-  <si>
-    <t>Moju</t>
-  </si>
-  <si>
     <t>Contato</t>
   </si>
   <si>
     <t>Cidade</t>
   </si>
   <si>
-    <t>Max Almeida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alan Costa </t>
-  </si>
-  <si>
-    <t>Ana Livia Dirceu</t>
-  </si>
-  <si>
-    <t>Ana maria de Souza</t>
-  </si>
-  <si>
-    <t>Maria Almeida</t>
-  </si>
-  <si>
-    <t>João Renato</t>
-  </si>
-  <si>
-    <t>Lucio de Sousa</t>
+    <t>ANANINDEUA</t>
+  </si>
+  <si>
+    <t>ANTONIO FERREIRA MAGALHAES FILHO</t>
+  </si>
+  <si>
+    <t>91 8936-3383</t>
+  </si>
+  <si>
+    <t>LARISSA DA COSTA BITTENCOURT</t>
+  </si>
+  <si>
+    <t>91 8159-4928</t>
+  </si>
+  <si>
+    <t>MATHEUS MENDES DA SILVA GOMES</t>
+  </si>
+  <si>
+    <t>91 8906-4313</t>
+  </si>
+  <si>
+    <t>OSMARINO DA SILVA NASCIMENTO</t>
+  </si>
+  <si>
+    <t>91 8115-2148</t>
+  </si>
+  <si>
+    <t>TASSO DONZA AGUIAR</t>
+  </si>
+  <si>
+    <t>91 99292-5856</t>
+  </si>
+  <si>
+    <t>TAMARA LINLEY COSTA PORTO</t>
+  </si>
+  <si>
+    <t>BARCARENA</t>
+  </si>
+  <si>
+    <t>91 8592-2144</t>
+  </si>
+  <si>
+    <t>ANA CAROLINA DE MIRANDA TAVARES</t>
+  </si>
+  <si>
+    <t>BELÉM</t>
+  </si>
+  <si>
+    <t>91 8337-6111</t>
+  </si>
+  <si>
+    <t>ANA CAROLINA DIAS FREITAS</t>
+  </si>
+  <si>
+    <t>918592-2144</t>
+  </si>
+  <si>
+    <t>ANA LIVIA PRAXEDES SAMPAIO</t>
+  </si>
+  <si>
+    <t>91 8024-7459</t>
+  </si>
+  <si>
+    <t>ANA LIVIA VICENTE BRITO</t>
+  </si>
+  <si>
+    <t>91 8400-8178</t>
+  </si>
+  <si>
+    <t>ANDREIZA LUANA BRITO DE SOUZA</t>
+  </si>
+  <si>
+    <t>ANTONIO AUGUSTO MACHADO DOS SANTOS REIS</t>
+  </si>
+  <si>
+    <t>91 8293-6361</t>
+  </si>
+  <si>
+    <t>ANTONIO SERAFIM DOS SANTOS REIS</t>
+  </si>
+  <si>
+    <t>91 8745-2501</t>
+  </si>
+  <si>
+    <t>AUGUSTO CLEBER OLIVEIRA DO NASCIMENTO</t>
+  </si>
+  <si>
+    <t>91 8749-4112</t>
+  </si>
+  <si>
+    <t>CARLA CATIARA VALE SILVA</t>
+  </si>
+  <si>
+    <t>CARLOS EDISIO TORRES LEITE</t>
+  </si>
+  <si>
+    <t>91 8281-0724</t>
+  </si>
+  <si>
+    <t>DAGOMAR FIGUEIREDO ARAGAO</t>
+  </si>
+  <si>
+    <t>91 9913-4430</t>
+  </si>
+  <si>
+    <t>DAIANY LIMA DUARTE</t>
+  </si>
+  <si>
+    <t>91 9321-3779</t>
+  </si>
+  <si>
+    <t>DARA DALILA FERREIRA NETO</t>
+  </si>
+  <si>
+    <t>DIEGO NAZARENO DE JESUS SANTOS FILGUEIRAS</t>
+  </si>
+  <si>
+    <t>91 9395-1143</t>
+  </si>
+  <si>
+    <t>DOUGLAS GUSTAVO ARAUJO RIBEIRO</t>
+  </si>
+  <si>
+    <t>91 8224-8385</t>
+  </si>
+  <si>
+    <t>ELCIONE DA SILVA E SILVA</t>
+  </si>
+  <si>
+    <t>91 8938-3874</t>
+  </si>
+  <si>
+    <t>ELOISE SOUSA DE SOUSA</t>
+  </si>
+  <si>
+    <t>91 8402-2205</t>
+  </si>
+  <si>
+    <t>EUNICE DOS SANTOS SULZER BRASIL</t>
+  </si>
+  <si>
+    <t>91 9926-9004</t>
+  </si>
+  <si>
+    <t>FERNANDA MARISTANE LOPES ARAUJO</t>
+  </si>
+  <si>
+    <t>91 8119-0375</t>
+  </si>
+  <si>
+    <t>GIULIA HELENA PRAXEDES DA SILVA</t>
+  </si>
+  <si>
+    <t>91 8522-4934</t>
+  </si>
+  <si>
+    <t>GLENDA DE SOUSA DINIZ</t>
+  </si>
+  <si>
+    <t>GUALDINA MARIA MENEZES LEITE</t>
+  </si>
+  <si>
+    <t>91 9195-2063</t>
+  </si>
+  <si>
+    <t>91 9181-1603</t>
+  </si>
+  <si>
+    <t>IANIE ESTER ESSASHIKA PRAZERES</t>
+  </si>
+  <si>
+    <t>91 8261-2170</t>
+  </si>
+  <si>
+    <t>IZABELE CAROLINE LEITE MEDEIROS</t>
+  </si>
+  <si>
+    <t>JAQUELLINY LOPES BARRA</t>
+  </si>
+  <si>
+    <t>91 9283-4142</t>
+  </si>
+  <si>
+    <t>JOÃO VITOR MANOEL PINHEIRO DE LIMA</t>
+  </si>
+  <si>
+    <t>91 8149-8431</t>
+  </si>
+  <si>
+    <t>LAWSON FELIPE PEREIRA DOURADO BARBOSA</t>
+  </si>
+  <si>
+    <t>91 8175-7800</t>
+  </si>
+  <si>
+    <t>LUCAS DE MORAES BRITO</t>
+  </si>
+  <si>
+    <t>91 9132-1818</t>
+  </si>
+  <si>
+    <t>LUCAS MATHIAS FONSECA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>91 8258-9967</t>
+  </si>
+  <si>
+    <t>MARCO ANTONIO LOPES MENEZES</t>
+  </si>
+  <si>
+    <t>92 9447-3232</t>
+  </si>
+  <si>
+    <t>MARIA EMANUELY DOS SANTOS BARBOSA</t>
+  </si>
+  <si>
+    <t>91 8368-6868</t>
+  </si>
+  <si>
+    <t>MARIA JANDIRA MACHADO</t>
+  </si>
+  <si>
+    <t>MAXSON ALMEIDA FEROVANTE</t>
+  </si>
+  <si>
+    <t>91 8229-9627</t>
+  </si>
+  <si>
+    <t>NATALIA FERNANDA PALHETA DE MOURA</t>
+  </si>
+  <si>
+    <t>91 8122-1532</t>
+  </si>
+  <si>
+    <t>RAQUEL NONATO DE BRICIO</t>
+  </si>
+  <si>
+    <t>91 8603-3362</t>
+  </si>
+  <si>
+    <t>RODRIGO GONDIM SILVA</t>
+  </si>
+  <si>
+    <t>SANDY PINHEIRO RABELO</t>
+  </si>
+  <si>
+    <t>91 8943-4862</t>
+  </si>
+  <si>
+    <t>SARA CAMPOS DE MORAES</t>
+  </si>
+  <si>
+    <t>THAIS DE MELO RAMOS</t>
+  </si>
+  <si>
+    <t>91 8914-5778</t>
+  </si>
+  <si>
+    <t>THAISE EMANUELE GUIMARÃES DA SILVA</t>
+  </si>
+  <si>
+    <t>91 8261-2532</t>
+  </si>
+  <si>
+    <t>VALERIA DE BRICIO MONTEIRO</t>
+  </si>
+  <si>
+    <t>91 9345-0076</t>
+  </si>
+  <si>
+    <t>VITORIA JUNIA FARIAS DOS ANJOS</t>
+  </si>
+  <si>
+    <t>CAUA PASTANA MONTEIRO</t>
+  </si>
+  <si>
+    <t>91 98369-2860</t>
+  </si>
+  <si>
+    <t>91 98402-2205</t>
+  </si>
+  <si>
+    <t>MÔNICA DA COSTA OLIVEIRA</t>
+  </si>
+  <si>
+    <t>91 99343-1602</t>
+  </si>
+  <si>
+    <t>LAINA CAROLINE DA SILVA PONTES</t>
+  </si>
+  <si>
+    <t>91 98428-8401</t>
+  </si>
+  <si>
+    <t>ANA CAROLINA MARTINS NEVES</t>
+  </si>
+  <si>
+    <t>CASTANHAL</t>
+  </si>
+  <si>
+    <t>94 9246-4627</t>
+  </si>
+  <si>
+    <t>CAMILY VITÓRIA FERREIRA DE SOUZA</t>
+  </si>
+  <si>
+    <t>91 8462-2912</t>
+  </si>
+  <si>
+    <t>MARTA OLIVEIRA PARENTE</t>
+  </si>
+  <si>
+    <t>CONCEIÇÃO DO ARAGUAIA</t>
+  </si>
+  <si>
+    <t>JOANA DARC NONATO DOS SANTOS</t>
+  </si>
+  <si>
+    <t>IGARAPÉ-MIRI</t>
+  </si>
+  <si>
+    <t>91 9347-8027</t>
+  </si>
+  <si>
+    <t>WELFESOM CAMPOS ALVES</t>
+  </si>
+  <si>
+    <t>LIMOEIRO DO AJURU</t>
+  </si>
+  <si>
+    <t>ODILON VIEIRA NETO</t>
+  </si>
+  <si>
+    <t>MARABÁ</t>
+  </si>
+  <si>
+    <t>91 9324-2946</t>
+  </si>
+  <si>
+    <t>ANTONIO MARCO TENORIO SENA</t>
+  </si>
+  <si>
+    <t>MARITUBA</t>
+  </si>
+  <si>
+    <t>BRUNA FREIRE DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>MOJU</t>
+  </si>
+  <si>
+    <t>91 8757-3486</t>
+  </si>
+  <si>
+    <t>LUANA MORAES DOS SANTOS</t>
+  </si>
+  <si>
+    <t>91 9305-8485</t>
+  </si>
+  <si>
+    <t>TANIA DIAS GONCALVES</t>
+  </si>
+  <si>
+    <t>91 8373-6520</t>
+  </si>
+  <si>
+    <t>VALEZIA NONATO DE BRICIO</t>
+  </si>
+  <si>
+    <t>91 8364-3677</t>
+  </si>
+  <si>
+    <t>VILMA NONATO DE BRICIO</t>
+  </si>
+  <si>
+    <t>FERNANDA SAMPAIO CORDOVIL</t>
+  </si>
+  <si>
+    <t>91 99165-9167</t>
+  </si>
+  <si>
+    <t>VALDICLEI SILVINO DOS REIS BAIA</t>
+  </si>
+  <si>
+    <t>TUCURUÍ</t>
+  </si>
+  <si>
+    <t>94 99160-2901</t>
+  </si>
+  <si>
+    <t>LANA JENNIFER ARAUJO BORGES</t>
+  </si>
+  <si>
+    <t>91 99171-1979</t>
+  </si>
+  <si>
+    <t>BOSCO FABRICIO CABRAL NASCIMENTO</t>
+  </si>
+  <si>
+    <t>91 98560-7395</t>
+  </si>
+  <si>
+    <t>GUILHERME SMETHURST ALBUQUERQUE</t>
+  </si>
+  <si>
+    <t>91 98807-1288</t>
+  </si>
+  <si>
+    <t>ALEX BRUNO MAIA VASCONCELOS</t>
+  </si>
+  <si>
+    <t>91 98088-7911</t>
+  </si>
+  <si>
+    <t>ENZO FELIPE DA SILVA FERREIRA</t>
+  </si>
+  <si>
+    <t>91 98518-5055</t>
+  </si>
+  <si>
+    <t>PIETRA NASCIMENTO BEDRAN</t>
+  </si>
+  <si>
+    <t>91 98450-0065</t>
+  </si>
+  <si>
+    <t>DEBORA JORDANA OLIVEIRA DOURADO</t>
+  </si>
+  <si>
+    <t>91 98538-3244</t>
+  </si>
+  <si>
+    <t>Antonio Ferreira Magalhaes Filho</t>
+  </si>
+  <si>
+    <t>Larissa Da Costa Bittencourt</t>
+  </si>
+  <si>
+    <t>Matheus Mendes Da Silva Gomes</t>
+  </si>
+  <si>
+    <t>Osmarino Da Silva Nascimento</t>
+  </si>
+  <si>
+    <t>Tasso Donza Aguiar</t>
+  </si>
+  <si>
+    <t>Tamara Linley Costa Porto</t>
+  </si>
+  <si>
+    <t>Ana Carolina De Miranda Tavares</t>
+  </si>
+  <si>
+    <t>Ana Carolina Dias Freitas</t>
+  </si>
+  <si>
+    <t>Ana Livia Praxedes Sampaio</t>
+  </si>
+  <si>
+    <t>Ana Livia Vicente Brito</t>
+  </si>
+  <si>
+    <t>Andreiza Luana Brito De Souza</t>
+  </si>
+  <si>
+    <t>Antonio Augusto Machado Dos Santos Reis</t>
+  </si>
+  <si>
+    <t>Antonio Serafim Dos Santos Reis</t>
+  </si>
+  <si>
+    <t>Augusto Cleber Oliveira Do Nascimento</t>
+  </si>
+  <si>
+    <t>Carla Catiara Vale Silva</t>
+  </si>
+  <si>
+    <t>Carlos Edisio Torres Leite</t>
+  </si>
+  <si>
+    <t>Dagomar Figueiredo Aragao</t>
+  </si>
+  <si>
+    <t>Daiany Lima Duarte</t>
+  </si>
+  <si>
+    <t>Dara Dalila Ferreira Neto</t>
+  </si>
+  <si>
+    <t>Diego Nazareno De Jesus Santos Filgueiras</t>
+  </si>
+  <si>
+    <t>Douglas Gustavo Araujo Ribeiro</t>
+  </si>
+  <si>
+    <t>Elcione Da Silva E Silva</t>
+  </si>
+  <si>
+    <t>Eloise Sousa De Sousa</t>
+  </si>
+  <si>
+    <t>Eunice Dos Santos Sulzer Brasil</t>
+  </si>
+  <si>
+    <t>Fernanda Maristane Lopes Araujo</t>
+  </si>
+  <si>
+    <t>Giulia Helena Praxedes Da Silva</t>
+  </si>
+  <si>
+    <t>Glenda De Sousa Diniz</t>
+  </si>
+  <si>
+    <t>Gualdina Maria Menezes Leite</t>
+  </si>
+  <si>
+    <t>Ianie Ester Essashika Prazeres</t>
+  </si>
+  <si>
+    <t>Izabele Caroline Leite Medeiros</t>
+  </si>
+  <si>
+    <t>Jaquelliny Lopes Barra</t>
+  </si>
+  <si>
+    <t>João Vitor Manoel Pinheiro De Lima</t>
+  </si>
+  <si>
+    <t>Lawson Felipe Pereira Dourado Barbosa</t>
+  </si>
+  <si>
+    <t>Lucas De Moraes Brito</t>
+  </si>
+  <si>
+    <t>Lucas Mathias Fonseca Dos Santos</t>
+  </si>
+  <si>
+    <t>Marco Antonio Lopes Menezes</t>
+  </si>
+  <si>
+    <t>Maria Emanuely Dos Santos Barbosa</t>
+  </si>
+  <si>
+    <t>Maria Jandira Machado</t>
+  </si>
+  <si>
+    <t>Maxson Almeida Ferovante</t>
+  </si>
+  <si>
+    <t>Natalia Fernanda Palheta De Moura</t>
+  </si>
+  <si>
+    <t>Raquel Nonato De Bricio</t>
+  </si>
+  <si>
+    <t>Rodrigo Gondim Silva</t>
+  </si>
+  <si>
+    <t>Sandy Pinheiro Rabelo</t>
+  </si>
+  <si>
+    <t>Sara Campos De Moraes</t>
+  </si>
+  <si>
+    <t>Thais De Melo Ramos</t>
+  </si>
+  <si>
+    <t>Thaise Emanuele Guimarães Da Silva</t>
+  </si>
+  <si>
+    <t>Valeria De Bricio Monteiro</t>
+  </si>
+  <si>
+    <t>Vitoria Junia Farias Dos Anjos</t>
+  </si>
+  <si>
+    <t>Caua Pastana Monteiro</t>
+  </si>
+  <si>
+    <t>Mônica Da Costa Oliveira</t>
+  </si>
+  <si>
+    <t>Laina Caroline Da Silva Pontes</t>
+  </si>
+  <si>
+    <t>Ana Carolina Martins Neves</t>
+  </si>
+  <si>
+    <t>Camily Vitória Ferreira De Souza</t>
+  </si>
+  <si>
+    <t>Marta Oliveira Parente</t>
+  </si>
+  <si>
+    <t>Joana Darc Nonato Dos Santos</t>
+  </si>
+  <si>
+    <t>Welfesom Campos Alves</t>
+  </si>
+  <si>
+    <t>Odilon Vieira Neto</t>
+  </si>
+  <si>
+    <t>Antonio Marco Tenorio Sena</t>
+  </si>
+  <si>
+    <t>Bruna Freire De Almeida</t>
+  </si>
+  <si>
+    <t>Luana Moraes Dos Santos</t>
+  </si>
+  <si>
+    <t>Tania Dias Goncalves</t>
+  </si>
+  <si>
+    <t>Valezia Nonato De Bricio</t>
+  </si>
+  <si>
+    <t>Vilma Nonato De Bricio</t>
+  </si>
+  <si>
+    <t>Fernanda Sampaio Cordovil</t>
+  </si>
+  <si>
+    <t>Valdiclei Silvino Dos Reis Baia</t>
+  </si>
+  <si>
+    <t>Lana Jennifer Araujo Borges</t>
+  </si>
+  <si>
+    <t>Bosco Fabricio Cabral Nascimento</t>
+  </si>
+  <si>
+    <t>Guilherme Smethurst Albuquerque</t>
+  </si>
+  <si>
+    <t>Alex Bruno Maia Vasconcelos</t>
+  </si>
+  <si>
+    <t>Enzo Felipe Da Silva Ferreira</t>
+  </si>
+  <si>
+    <t>Pietra Nascimento Bedran</t>
+  </si>
+  <si>
+    <t>Debora Jordana Oliveira Dourado</t>
   </si>
 </sst>
 </file>
@@ -117,9 +727,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,16 +1050,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A520D3-6CEA-411C-92CB-2A1EAB947409}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="87" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -451,88 +1067,1638 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1">
-        <v>91982299627</v>
+      <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="3">
+        <v>9192806063</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>171</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>172</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>174</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>175</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>177</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>179</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>181</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>182</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>183</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>184</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>185</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>186</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>187</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>188</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>189</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>190</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>191</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>192</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>193</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>194</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>195</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>169</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>196</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>197</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>198</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>199</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>200</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>201</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>202</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>203</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>204</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>205</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>206</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>207</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>208</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>209</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>210</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>211</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>212</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>213</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>214</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>215</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>216</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>217</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C73" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>218</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C74" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8514D2DC-1C4C-4EAB-8ADD-8F85C7AB5A1E}">
+  <dimension ref="A1:C73"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection sqref="A1:C73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1">
-        <v>91982299627</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1">
-        <v>91982299627</v>
-      </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1">
-        <v>91982299627</v>
+      <c r="B5" t="s">
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1">
-        <v>91982299627</v>
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1">
-        <v>91982299627</v>
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1">
-        <v>91982299627</v>
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>9192806063</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>135</v>
+      </c>
+      <c r="B68" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>139</v>
+      </c>
+      <c r="B70" t="s">
+        <v>140</v>
+      </c>
+      <c r="C70" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>141</v>
+      </c>
+      <c r="B71" t="s">
+        <v>142</v>
+      </c>
+      <c r="C71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" t="s">
+        <v>144</v>
+      </c>
+      <c r="C72" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
